--- a/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
+++ b/InputData/ccs/CCSTaSC/CCS Transportation and Storage Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\CCSTaSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\ND\ccs\CCSTaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB69C57-C5D6-459F-AF6B-9308998FBC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{312C2E98-7326-43F3-BCDE-799CD82FE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21525" yWindow="2850" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="14145" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Source:</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>2021 to 2012 $</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -455,12 +458,18 @@
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,35 +477,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -504,7 +513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -631,123 +640,123 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="C2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="D2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="E2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="F2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="G2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="H2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="I2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="J2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="K2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="L2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="M2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="N2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="O2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="P2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Q2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="R2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="S2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="T2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="U2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="V2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="W2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="X2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Y2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="Z2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AA2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AB2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AC2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AD2" s="7">
-        <f>About!$B$10*About!$B$11</f>
-        <v>14.398999999999999</v>
-      </c>
-      <c r="AE2" s="7">
+      <c r="B2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="C2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="D2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="E2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="F2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="G2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="H2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="I2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="J2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="K2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="L2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="M2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="N2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="O2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="P2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="Q2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="R2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="S2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="T2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="U2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="V2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="W2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="X2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="Y2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="Z2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="AA2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="AB2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="AC2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="AD2">
+        <f>About!$B$10*About!$B$11</f>
+        <v>14.398999999999999</v>
+      </c>
+      <c r="AE2">
         <f>About!$B$10*About!$B$11</f>
         <v>14.398999999999999</v>
       </c>
